--- a/result/without_base/124/arousal/s09_0.xlsx
+++ b/result/without_base/124/arousal/s09_0.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8149999976158142</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -516,7 +516,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-05</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7274999916553497</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C2" t="n">
-        <v>41740.556640625</v>
+        <v>41826.12109375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6476136391813104</v>
+        <v>0.6077272621068087</v>
       </c>
       <c r="E2" t="n">
-        <v>41742.3828125</v>
+        <v>41826.46981534091</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6674999892711639</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C3" t="n">
-        <v>40986.1484375</v>
+        <v>41094.51953125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6140909194946289</v>
+        <v>0.637386370788921</v>
       </c>
       <c r="E3" t="n">
-        <v>40985.49289772727</v>
+        <v>41095.83132102273</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7125000059604645</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C4" t="n">
-        <v>40232.455078125</v>
+        <v>40391.142578125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6697727333415638</v>
+        <v>0.5927272764119235</v>
       </c>
       <c r="E4" t="n">
-        <v>40231.52592329546</v>
+        <v>40391.94034090909</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6924999952316284</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="C5" t="n">
-        <v>39491.419921875</v>
+        <v>39683.16015625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.677499998699535</v>
+        <v>0.6736363606019453</v>
       </c>
       <c r="E5" t="n">
-        <v>39490.85262784091</v>
+        <v>39684.07173295454</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6924999952316284</v>
+        <v>0.7075000107288361</v>
       </c>
       <c r="C6" t="n">
-        <v>38760.6484375</v>
+        <v>38986.197265625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6772727370262146</v>
+        <v>0.6829545389522206</v>
       </c>
       <c r="E6" t="n">
-        <v>38759.22194602273</v>
+        <v>38987.77911931818</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6274999976158142</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="C7" t="n">
-        <v>38041.888671875</v>
+        <v>38295.65234375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6772727207704023</v>
+        <v>0.6931818236004222</v>
       </c>
       <c r="E7" t="n">
-        <v>38042.08380681818</v>
+        <v>38296.81001420454</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.699999988079071</v>
+        <v>0.7549999952316284</v>
       </c>
       <c r="C8" t="n">
-        <v>37332.349609375</v>
+        <v>37613.970703125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6771590926430442</v>
+        <v>0.6938636302947998</v>
       </c>
       <c r="E8" t="n">
-        <v>37330.96697443182</v>
+        <v>37615.03053977273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7050000131130219</v>
+        <v>0.7199999988079071</v>
       </c>
       <c r="C9" t="n">
-        <v>36635.3828125</v>
+        <v>36941.95703125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7122727253220298</v>
+        <v>0.7030681859363209</v>
       </c>
       <c r="E9" t="n">
-        <v>36634.34588068182</v>
+        <v>36942.47407670454</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7175000011920929</v>
+        <v>0.7600000202655792</v>
       </c>
       <c r="C10" t="n">
-        <v>35949.46875</v>
+        <v>36278.623046875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7161363634196195</v>
+        <v>0.7150000008669767</v>
       </c>
       <c r="E10" t="n">
-        <v>35948.32776988636</v>
+        <v>36279.27663352273</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6725000143051147</v>
+        <v>0.6949999928474426</v>
       </c>
       <c r="C11" t="n">
-        <v>35273.935546875</v>
+        <v>35625.1875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7130681818181818</v>
+        <v>0.7202272686091337</v>
       </c>
       <c r="E11" t="n">
-        <v>35272.91690340909</v>
+        <v>35625.6015625</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7324999868869781</v>
+        <v>0.6974999904632568</v>
       </c>
       <c r="C12" t="n">
-        <v>34610.326171875</v>
+        <v>34981.734375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7339772744612261</v>
+        <v>0.703977265141227</v>
       </c>
       <c r="E12" t="n">
-        <v>34609.4296875</v>
+        <v>34981.55752840909</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7325000166893005</v>
+        <v>0.7175000011920929</v>
       </c>
       <c r="C13" t="n">
-        <v>33957.349609375</v>
+        <v>34347.54296875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7494318214329806</v>
+        <v>0.7063636346296831</v>
       </c>
       <c r="E13" t="n">
-        <v>33956.18359375</v>
+        <v>34347.59197443182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7100000083446503</v>
+        <v>0.7800000011920929</v>
       </c>
       <c r="C14" t="n">
-        <v>33315.599609375</v>
+        <v>33722.326171875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7092045437205922</v>
+        <v>0.7442045591094277</v>
       </c>
       <c r="E14" t="n">
-        <v>33314.30539772727</v>
+        <v>33722.66335227273</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.7324999868869781</v>
       </c>
       <c r="C15" t="n">
-        <v>32683.9296875</v>
+        <v>33107.181640625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7479545419866388</v>
+        <v>0.7535227320410989</v>
       </c>
       <c r="E15" t="n">
-        <v>32682.64701704546</v>
+        <v>33107.18288352273</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.7475000023841858</v>
       </c>
       <c r="C16" t="n">
-        <v>32063.345703125</v>
+        <v>32501.6953125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7521590861407194</v>
+        <v>0.7494318322701887</v>
       </c>
       <c r="E16" t="n">
-        <v>32062.56019176136</v>
+        <v>32501.67560369318</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C17" t="n">
-        <v>31453.1767578125</v>
+        <v>31905.3603515625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7579545487057079</v>
+        <v>0.7511363625526428</v>
       </c>
       <c r="E17" t="n">
-        <v>31452.18696732954</v>
+        <v>31905.28799715909</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6824999749660492</v>
+        <v>0.7475000023841858</v>
       </c>
       <c r="C18" t="n">
-        <v>30853.8046875</v>
+        <v>31318.4658203125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.775227275761691</v>
+        <v>0.7787500023841858</v>
       </c>
       <c r="E18" t="n">
-        <v>30852.76598011364</v>
+        <v>31318.21395596591</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7175000011920929</v>
+        <v>0.7524999976158142</v>
       </c>
       <c r="C19" t="n">
-        <v>30265.177734375</v>
+        <v>30741.0009765625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7643181790005077</v>
+        <v>0.7649999965320934</v>
       </c>
       <c r="E19" t="n">
-        <v>30263.95614346591</v>
+        <v>30741.03409090909</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6924999952316284</v>
+        <v>0.6450000107288361</v>
       </c>
       <c r="C20" t="n">
-        <v>29686.20703125</v>
+        <v>30173.291015625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7312499934976752</v>
+        <v>0.7202272686091337</v>
       </c>
       <c r="E20" t="n">
-        <v>29685.04616477273</v>
+        <v>30172.947265625</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.7150000035762787</v>
       </c>
       <c r="C21" t="n">
-        <v>29117.271484375</v>
+        <v>29614.376953125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7670454599640586</v>
+        <v>0.7602272738109935</v>
       </c>
       <c r="E21" t="n">
-        <v>29116.27201704546</v>
+        <v>29614.19566761364</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7249999940395355</v>
+        <v>0.7100000083446503</v>
       </c>
       <c r="C22" t="n">
-        <v>28558.5869140625</v>
+        <v>29064.8974609375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7874999913302335</v>
+        <v>0.7505681839856234</v>
       </c>
       <c r="E22" t="n">
-        <v>28557.53746448864</v>
+        <v>29064.67169744318</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6525000035762787</v>
+        <v>0.7649999856948853</v>
       </c>
       <c r="C23" t="n">
-        <v>28010.08203125</v>
+        <v>28524.1064453125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7704545476219871</v>
+        <v>0.7730681787837635</v>
       </c>
       <c r="E23" t="n">
-        <v>28008.84055397727</v>
+        <v>28523.72549715909</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7350000143051147</v>
+        <v>0.7924999892711639</v>
       </c>
       <c r="C24" t="n">
-        <v>27470.701171875</v>
+        <v>27992.302734375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7704545422033831</v>
+        <v>0.7887500036846508</v>
       </c>
       <c r="E24" t="n">
-        <v>27469.86629971591</v>
+        <v>27992.01278409091</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7875000238418579</v>
       </c>
       <c r="C25" t="n">
-        <v>26941.251953125</v>
+        <v>27469.7099609375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7770454721017317</v>
+        <v>0.795681817965074</v>
       </c>
       <c r="E25" t="n">
-        <v>26940.36807528409</v>
+        <v>27469.38494318182</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6924999952316284</v>
+        <v>0.7125000059604645</v>
       </c>
       <c r="C26" t="n">
-        <v>26421.3369140625</v>
+        <v>26956.173828125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7679545445875688</v>
+        <v>0.776477271860296</v>
       </c>
       <c r="E26" t="n">
-        <v>26420.53586647727</v>
+        <v>26955.67791193182</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.742499977350235</v>
+        <v>0.7349999845027924</v>
       </c>
       <c r="C27" t="n">
-        <v>25910.623046875</v>
+        <v>26450.8623046875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7742045413364064</v>
+        <v>0.776818183335391</v>
       </c>
       <c r="E27" t="n">
-        <v>25909.67027698864</v>
+        <v>26450.55078125</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7450000047683716</v>
       </c>
       <c r="C28" t="n">
-        <v>25408.8046875</v>
+        <v>25954.0859375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8017045476219871</v>
+        <v>0.7830681855028326</v>
       </c>
       <c r="E28" t="n">
-        <v>25407.85990767046</v>
+        <v>25953.81214488636</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.7100000083446503</v>
       </c>
       <c r="C29" t="n">
-        <v>24916.544921875</v>
+        <v>25466.1279296875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.781704539602453</v>
+        <v>0.7850000045516274</v>
       </c>
       <c r="E29" t="n">
-        <v>24915.353515625</v>
+        <v>25465.65110085227</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7350000143051147</v>
+        <v>0.7600000202655792</v>
       </c>
       <c r="C30" t="n">
-        <v>24432.6865234375</v>
+        <v>24986.048828125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.793295453895222</v>
+        <v>0.8103408976034685</v>
       </c>
       <c r="E30" t="n">
-        <v>24431.86807528409</v>
+        <v>24985.69779829546</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7775000035762787</v>
+        <v>0.7824999988079071</v>
       </c>
       <c r="C31" t="n">
-        <v>23957.759765625</v>
+        <v>24514.458984375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8073863712224093</v>
+        <v>0.8245454593138262</v>
       </c>
       <c r="E31" t="n">
-        <v>23956.82741477273</v>
+        <v>24514.17223011364</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.699999988079071</v>
+        <v>0.7725000083446503</v>
       </c>
       <c r="C32" t="n">
-        <v>23491.7197265625</v>
+        <v>24051.1533203125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.795681817965074</v>
+        <v>0.8120454495603388</v>
       </c>
       <c r="E32" t="n">
-        <v>23490.62038352273</v>
+        <v>24050.80912642046</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7224999964237213</v>
+        <v>0.7025000154972076</v>
       </c>
       <c r="C33" t="n">
-        <v>23033.3740234375</v>
+        <v>23596.302734375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8170454502105713</v>
+        <v>0.7611363584345038</v>
       </c>
       <c r="E33" t="n">
-        <v>23032.66512784091</v>
+        <v>23595.84641335227</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7224999964237213</v>
+        <v>0.7650000154972076</v>
       </c>
       <c r="C34" t="n">
-        <v>22583.9716796875</v>
+        <v>23148.576171875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8227272738109935</v>
+        <v>0.788863637230613</v>
       </c>
       <c r="E34" t="n">
-        <v>22583.14364346591</v>
+        <v>23148.26970880682</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.7700000107288361</v>
       </c>
       <c r="C35" t="n">
-        <v>22143.275390625</v>
+        <v>22708.6142578125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7545454556291754</v>
+        <v>0.8259090889583934</v>
       </c>
       <c r="E35" t="n">
-        <v>22142.52290482954</v>
+        <v>22708.21946022727</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7349999845027924</v>
+        <v>0.7674999833106995</v>
       </c>
       <c r="C36" t="n">
-        <v>21709.8720703125</v>
+        <v>22276.736328125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8068181872367859</v>
+        <v>0.8135227235880765</v>
       </c>
       <c r="E36" t="n">
-        <v>21708.818359375</v>
+        <v>22276.28586647727</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7599999904632568</v>
+        <v>0.7274999916553497</v>
       </c>
       <c r="C37" t="n">
-        <v>21284.2744140625</v>
+        <v>21852.65234375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8143181746656244</v>
+        <v>0.8019318147139116</v>
       </c>
       <c r="E37" t="n">
-        <v>21283.51171875</v>
+        <v>21852.14506392046</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7075000107288361</v>
       </c>
       <c r="C38" t="n">
-        <v>20866.9453125</v>
+        <v>21435.6796875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8017045422033831</v>
+        <v>0.8037500056353483</v>
       </c>
       <c r="E38" t="n">
-        <v>20866.15500710227</v>
+        <v>21435.19655539773</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7275000214576721</v>
+        <v>0.6500000059604645</v>
       </c>
       <c r="C39" t="n">
-        <v>20456.9169921875</v>
+        <v>21026.1611328125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.804886362769387</v>
+        <v>0.7713636376641013</v>
       </c>
       <c r="E39" t="n">
-        <v>20456.21431107954</v>
+        <v>21025.52414772727</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.75</v>
+        <v>0.7350000143051147</v>
       </c>
       <c r="C40" t="n">
-        <v>20054.734375</v>
+        <v>20623.677734375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8134090900421143</v>
+        <v>0.8030681718479503</v>
       </c>
       <c r="E40" t="n">
-        <v>20053.83433948864</v>
+        <v>20623.14009232954</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7075000107288361</v>
+        <v>0.742499977350235</v>
       </c>
       <c r="C41" t="n">
-        <v>19659.9150390625</v>
+        <v>20228.5908203125</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8125</v>
+        <v>0.794090910391374</v>
       </c>
       <c r="E41" t="n">
-        <v>19658.96448863636</v>
+        <v>20228.14612926136</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1255,13 +1255,13 @@
         <v>0.7574999928474426</v>
       </c>
       <c r="C42" t="n">
-        <v>19271.9150390625</v>
+        <v>19840.337890625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8022727316076105</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E42" t="n">
-        <v>19271.16637073864</v>
+        <v>19839.84090909091</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7325000166893005</v>
+        <v>0.6924999952316284</v>
       </c>
       <c r="C43" t="n">
-        <v>18891.3759765625</v>
+        <v>19459.2802734375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7698863527991555</v>
+        <v>0.7877272692593661</v>
       </c>
       <c r="E43" t="n">
-        <v>18890.83647017046</v>
+        <v>19458.68714488636</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7675000131130219</v>
+        <v>0.7449999749660492</v>
       </c>
       <c r="C44" t="n">
-        <v>18517.556640625</v>
+        <v>19084.3173828125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8135227290066805</v>
+        <v>0.8263636339794506</v>
       </c>
       <c r="E44" t="n">
-        <v>18516.92436079546</v>
+        <v>19083.88583096591</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.7250000238418579</v>
       </c>
       <c r="C45" t="n">
-        <v>18151.4248046875</v>
+        <v>18716.4814453125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7571590976281599</v>
+        <v>0.8068181818181818</v>
       </c>
       <c r="E45" t="n">
-        <v>18150.74200994318</v>
+        <v>18716.11825284091</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.7950000166893005</v>
       </c>
       <c r="C46" t="n">
-        <v>17791.3193359375</v>
+        <v>18354.8994140625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7795454588803378</v>
+        <v>0.8273863629861311</v>
       </c>
       <c r="E46" t="n">
-        <v>17790.42666903409</v>
+        <v>18354.54829545454</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7350000143051147</v>
+        <v>0.7250000238418579</v>
       </c>
       <c r="C47" t="n">
-        <v>17438.0498046875</v>
+        <v>18000.201171875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8105681863698092</v>
+        <v>0.8076136383143339</v>
       </c>
       <c r="E47" t="n">
-        <v>17437.19620028409</v>
+        <v>17999.78835227273</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7699999809265137</v>
+        <v>0.7975000143051147</v>
       </c>
       <c r="C48" t="n">
-        <v>17091.0244140625</v>
+        <v>17651.4619140625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8245454593138262</v>
+        <v>0.8314772573384371</v>
       </c>
       <c r="E48" t="n">
-        <v>17090.345703125</v>
+        <v>17651.10511363636</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7699999809265137</v>
+        <v>0.7249999940395355</v>
       </c>
       <c r="C49" t="n">
-        <v>16750.7001953125</v>
+        <v>17309.4150390625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8264772729440168</v>
+        <v>0.7993181835521351</v>
       </c>
       <c r="E49" t="n">
-        <v>16750.041015625</v>
+        <v>17309.07457386364</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7724999785423279</v>
+        <v>0.7449999749660492</v>
       </c>
       <c r="C50" t="n">
-        <v>16416.8251953125</v>
+        <v>16973.0703125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8243181759660895</v>
+        <v>0.8314772844314575</v>
       </c>
       <c r="E50" t="n">
-        <v>16416.02361505682</v>
+        <v>16972.54989346591</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.762499988079071</v>
+        <v>0.8149999976158142</v>
       </c>
       <c r="C51" t="n">
-        <v>16088.78857421875</v>
+        <v>16642.740234375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8194318196990273</v>
+        <v>0.8388636328957297</v>
       </c>
       <c r="E51" t="n">
-        <v>16088.25754616477</v>
+        <v>16642.43128551136</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="C52" t="n">
-        <v>15767.2109375</v>
+        <v>16319.21728515625</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8159090822393243</v>
+        <v>0.7698863636363636</v>
       </c>
       <c r="E52" t="n">
-        <v>15766.59410511364</v>
+        <v>16318.71981534091</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.762499988079071</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C53" t="n">
-        <v>15451.337890625</v>
+        <v>16000.45703125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8273863575675271</v>
+        <v>0.8075000047683716</v>
       </c>
       <c r="E53" t="n">
-        <v>15450.71164772727</v>
+        <v>15999.96262428977</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7050000131130219</v>
       </c>
       <c r="C54" t="n">
-        <v>15141.58642578125</v>
+        <v>15688.27294921875</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7793181809512052</v>
+        <v>0.7871590852737427</v>
       </c>
       <c r="E54" t="n">
-        <v>15141.12171519886</v>
+        <v>15687.59206321023</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7800000011920929</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="C55" t="n">
-        <v>14837.48779296875</v>
+        <v>15380.703125</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8155681761828336</v>
+        <v>0.8410227298736572</v>
       </c>
       <c r="E55" t="n">
-        <v>14836.86772017045</v>
+        <v>15380.3154296875</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7300000190734863</v>
+        <v>0.7725000083446503</v>
       </c>
       <c r="C56" t="n">
-        <v>14539.12548828125</v>
+        <v>15079.25341796875</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7875000075860457</v>
+        <v>0.8304545445875688</v>
       </c>
       <c r="E56" t="n">
-        <v>14538.64728338068</v>
+        <v>15078.95356889205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7324999868869781</v>
+        <v>0.7549999952316284</v>
       </c>
       <c r="C57" t="n">
-        <v>14246.38623046875</v>
+        <v>14783.2978515625</v>
       </c>
       <c r="D57" t="n">
-        <v>0.819659103046764</v>
+        <v>0.829318182034926</v>
       </c>
       <c r="E57" t="n">
-        <v>14245.62872869318</v>
+        <v>14782.93696732955</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7600000202655792</v>
       </c>
       <c r="C58" t="n">
-        <v>13958.90185546875</v>
+        <v>14492.61279296875</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8179545456712897</v>
+        <v>0.8532954508608038</v>
       </c>
       <c r="E58" t="n">
-        <v>13958.35458096591</v>
+        <v>14492.31267755682</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.699999988079071</v>
+        <v>0.762499988079071</v>
       </c>
       <c r="C59" t="n">
-        <v>13677.1298828125</v>
+        <v>14207.4638671875</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8112500039013949</v>
+        <v>0.8267045454545454</v>
       </c>
       <c r="E59" t="n">
-        <v>13676.44762073864</v>
+        <v>14207.0146484375</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="C60" t="n">
-        <v>13400.326171875</v>
+        <v>13927.240234375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8264772675254128</v>
+        <v>0.831704551523382</v>
       </c>
       <c r="E60" t="n">
-        <v>13399.69149502841</v>
+        <v>13926.95374644886</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7274999916553497</v>
       </c>
       <c r="C61" t="n">
-        <v>13128.73681640625</v>
+        <v>13652.2236328125</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8051136406985197</v>
+        <v>0.8500000075860457</v>
       </c>
       <c r="E61" t="n">
-        <v>13128.32430752841</v>
+        <v>13651.78409090909</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7724999785423279</v>
+        <v>0.762499988079071</v>
       </c>
       <c r="C62" t="n">
-        <v>12862.30224609375</v>
+        <v>13382.2333984375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8304545391689647</v>
+        <v>0.8144318190487948</v>
       </c>
       <c r="E62" t="n">
-        <v>12861.70596590909</v>
+        <v>13381.92533735795</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7874999940395355</v>
+        <v>0.75</v>
       </c>
       <c r="C63" t="n">
-        <v>12600.783203125</v>
+        <v>13117.1689453125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8278409080071882</v>
+        <v>0.8105681755326011</v>
       </c>
       <c r="E63" t="n">
-        <v>12600.33194247159</v>
+        <v>13116.82395241477</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.762499988079071</v>
+        <v>0.7549999952316284</v>
       </c>
       <c r="C64" t="n">
-        <v>12344.4560546875</v>
+        <v>12856.85205078125</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8162500045516274</v>
+        <v>0.8379545482722196</v>
       </c>
       <c r="E64" t="n">
-        <v>12343.87846235795</v>
+        <v>12856.48180042614</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.7549999952316284</v>
       </c>
       <c r="C65" t="n">
-        <v>12092.8486328125</v>
+        <v>12601.51123046875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7695454467426647</v>
+        <v>0.8178409012881193</v>
       </c>
       <c r="E65" t="n">
-        <v>12092.48890269886</v>
+        <v>12601.16930042614</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7524999976158142</v>
+        <v>0.7574999928474426</v>
       </c>
       <c r="C66" t="n">
-        <v>11845.77001953125</v>
+        <v>12350.6181640625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8151136311617765</v>
+        <v>0.8392045443708246</v>
       </c>
       <c r="E66" t="n">
-        <v>11845.39009232955</v>
+        <v>12350.24751420455</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7699999809265137</v>
+        <v>0.7125000059604645</v>
       </c>
       <c r="C67" t="n">
-        <v>11603.55712890625</v>
+        <v>12104.6669921875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8101136359301481</v>
+        <v>0.7880681807344611</v>
       </c>
       <c r="E67" t="n">
-        <v>11603.15971235795</v>
+        <v>12104.36843039773</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6924999952316284</v>
+        <v>0.6574999988079071</v>
       </c>
       <c r="C68" t="n">
-        <v>11366.1328125</v>
+        <v>11863.2880859375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7973863590847362</v>
+        <v>0.7506818121129816</v>
       </c>
       <c r="E68" t="n">
-        <v>11365.48703835227</v>
+        <v>11862.71111505682</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7024999856948853</v>
+        <v>0.7350000143051147</v>
       </c>
       <c r="C69" t="n">
-        <v>11133.1279296875</v>
+        <v>11625.83642578125</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7640909010713751</v>
+        <v>0.8182954463091764</v>
       </c>
       <c r="E69" t="n">
-        <v>11132.74591619318</v>
+        <v>11625.44833096591</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7800000011920929</v>
+        <v>0.7675000131130219</v>
       </c>
       <c r="C70" t="n">
-        <v>10903.9658203125</v>
+        <v>11392.92431640625</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8251136324622415</v>
+        <v>0.8201136318120089</v>
       </c>
       <c r="E70" t="n">
-        <v>10903.48109019886</v>
+        <v>11392.6201171875</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.7625000178813934</v>
       </c>
       <c r="C71" t="n">
-        <v>10679.72265625</v>
+        <v>11164.36962890625</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7879545417698947</v>
+        <v>0.8327272696928545</v>
       </c>
       <c r="E71" t="n">
-        <v>10679.15696022727</v>
+        <v>11164.07448508523</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7399999797344208</v>
+        <v>0.7275000214576721</v>
       </c>
       <c r="C72" t="n">
-        <v>10459.5361328125</v>
+        <v>10940.06396484375</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7945454554124312</v>
+        <v>0.8381818207827482</v>
       </c>
       <c r="E72" t="n">
-        <v>10459.13316761364</v>
+        <v>10939.76500355114</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7649999856948853</v>
+        <v>0.7700000107288361</v>
       </c>
       <c r="C73" t="n">
-        <v>10243.3935546875</v>
+        <v>10719.9462890625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8009090965444391</v>
+        <v>0.830568178133531</v>
       </c>
       <c r="E73" t="n">
-        <v>10243.04509943182</v>
+        <v>10719.630859375</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.675000011920929</v>
+        <v>0.6699999868869781</v>
       </c>
       <c r="C74" t="n">
-        <v>10031.80419921875</v>
+        <v>10504.1298828125</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7705681811679493</v>
+        <v>0.7973863645033403</v>
       </c>
       <c r="E74" t="n">
-        <v>10031.25710227273</v>
+        <v>10503.71715198864</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7349999845027924</v>
+        <v>0.6375000178813934</v>
       </c>
       <c r="C75" t="n">
-        <v>9823.8115234375</v>
+        <v>10292.3671875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7769318222999573</v>
+        <v>0.7543181885372509</v>
       </c>
       <c r="E75" t="n">
-        <v>9823.547230113636</v>
+        <v>10291.87340198864</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7324999868869781</v>
+        <v>0.8125</v>
       </c>
       <c r="C76" t="n">
-        <v>9620.029296875</v>
+        <v>10083.74169921875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7564772638407621</v>
+        <v>0.820909088308161</v>
       </c>
       <c r="E76" t="n">
-        <v>9619.795454545454</v>
+        <v>10083.54412286932</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7475000023841858</v>
+        <v>0.7350000143051147</v>
       </c>
       <c r="C77" t="n">
-        <v>9419.87451171875</v>
+        <v>9879.73681640625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8234090913425792</v>
+        <v>0.8001136400482871</v>
       </c>
       <c r="E77" t="n">
-        <v>9419.469992897728</v>
+        <v>9879.5302734375</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7250000238418579</v>
+        <v>0.6824999749660492</v>
       </c>
       <c r="C78" t="n">
-        <v>9223.80517578125</v>
+        <v>9679.38037109375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8098863634196195</v>
+        <v>0.7884090867909518</v>
       </c>
       <c r="E78" t="n">
-        <v>9223.360529119318</v>
+        <v>9679.051313920454</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.75</v>
+        <v>0.7950000166893005</v>
       </c>
       <c r="C79" t="n">
-        <v>9031.4482421875</v>
+        <v>9482.58203125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7969318303194913</v>
+        <v>0.8435227329080756</v>
       </c>
       <c r="E79" t="n">
-        <v>9031.093217329546</v>
+        <v>9482.299360795454</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.7100000083446503</v>
       </c>
       <c r="C80" t="n">
-        <v>8843.171875</v>
+        <v>9289.81787109375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7173863703554327</v>
+        <v>0.8160227374597029</v>
       </c>
       <c r="E80" t="n">
-        <v>8843.03506747159</v>
+        <v>9289.48055752841</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8149999976158142</v>
       </c>
       <c r="C81" t="n">
-        <v>8657.6240234375</v>
+        <v>9100.27587890625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7822727290066805</v>
+        <v>0.816931811246005</v>
       </c>
       <c r="E81" t="n">
-        <v>8657.401899857954</v>
+        <v>9100.061789772728</v>
       </c>
     </row>
   </sheetData>
@@ -1962,32 +1962,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.007092198581560284</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0707070707070707</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.007092198581560284</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.0707070707070707</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1995,21 +1995,21 @@
         <v>0.01418439716312057</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.01418439716312057</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2017,21 +2017,21 @@
         <v>0.02127659574468085</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2039,21 +2039,21 @@
         <v>0.02836879432624113</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.3535353535353535</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.02836879432624113</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1616161616161616</v>
+        <v>0.3535353535353535</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2061,403 +2061,403 @@
         <v>0.03546099290780142</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1616161616161616</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1717171717171717</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.04964539007092199</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4646464646464646</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.04964539007092199</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.202020202020202</v>
+        <v>0.4646464646464646</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.05673758865248227</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202020202020202</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.05673758865248227</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2929292929292929</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2929292929292929</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3434343434343434</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3434343434343434</v>
+        <v>0.5656565656565656</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.5656565656565656</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.09219858156028368</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.09219858156028368</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C24" t="n">
-        <v>0.404040404040404</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.09929078014184398</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C25" t="n">
-        <v>0.404040404040404</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.09929078014184398</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6262626262626263</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6262626262626263</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1134751773049645</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1134751773049645</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1205673758865248</v>
+        <v>0.1631205673758865</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6464646464646465</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1205673758865248</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.6464646464646465</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5656565656565656</v>
+        <v>0.6565656565656566</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6565656565656566</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.148936170212766</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6767676767676768</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.148936170212766</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.6767676767676768</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.1560283687943262</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6161616161616161</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.1560283687943262</v>
+        <v>0.2198581560283688</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.2198581560283688</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7373737373737373</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.7373737373737373</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.7474747474747475</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.7474747474747475</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.3049645390070922</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.3049645390070922</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7676767676767676</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.3262411347517731</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7676767676767676</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.3262411347517731</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C47" t="n">
         <v>0.7777777777777778</v>
@@ -2465,32 +2465,32 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.3475177304964539</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.2411347517730496</v>
+        <v>0.3475177304964539</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.797979797979798</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.2411347517730496</v>
+        <v>0.3900709219858156</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C50" t="n">
         <v>0.797979797979798</v>
@@ -2498,21 +2498,21 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3900709219858156</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.797979797979798</v>
+        <v>0.8080808080808081</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4113475177304964</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C52" t="n">
         <v>0.8080808080808081</v>
@@ -2520,21 +2520,21 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3900709219858156</v>
+        <v>0.4113475177304964</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8080808080808081</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3900709219858156</v>
+        <v>0.4184397163120567</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C54" t="n">
         <v>0.8181818181818182</v>
@@ -2542,32 +2542,32 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3971631205673759</v>
+        <v>0.4184397163120567</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8383838383838383</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3971631205673759</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8383838383838383</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4042553191489361</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C57" t="n">
         <v>0.8484848484848485</v>
@@ -2575,21 +2575,21 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4042553191489361</v>
+        <v>0.5815602836879432</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8585858585858586</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.425531914893617</v>
+        <v>0.5815602836879432</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C59" t="n">
         <v>0.8585858585858586</v>
@@ -2597,32 +2597,32 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.425531914893617</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8686868686868687</v>
+        <v>0.8585858585858586</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8686868686868687</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C62" t="n">
         <v>0.8787878787878788</v>
@@ -2630,21 +2630,21 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.475177304964539</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.475177304964539</v>
+        <v>0.624113475177305</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C64" t="n">
         <v>0.8888888888888888</v>
@@ -2652,21 +2652,21 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4964539007092199</v>
+        <v>0.624113475177305</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.898989898989899</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4964539007092199</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C66" t="n">
         <v>0.898989898989899</v>
@@ -2674,21 +2674,21 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5177304964539007</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C67" t="n">
-        <v>0.898989898989899</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5177304964539007</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C68" t="n">
         <v>0.9090909090909091</v>
@@ -2696,21 +2696,21 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5390070921985816</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9191919191919192</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5390070921985816</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C70" t="n">
         <v>0.9191919191919192</v>
@@ -2718,21 +2718,21 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9191919191919192</v>
+        <v>0.9292929292929293</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.8439716312056738</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C72" t="n">
         <v>0.9292929292929293</v>
@@ -2740,21 +2740,21 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.7730496453900709</v>
+        <v>0.8439716312056738</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.7730496453900709</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C74" t="n">
         <v>0.9393939393939394</v>
@@ -2762,21 +2762,21 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.8014184397163121</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9494949494949495</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.8014184397163121</v>
+        <v>0.8652482269503546</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C76" t="n">
         <v>0.9494949494949495</v>
@@ -2784,43 +2784,43 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.8652482269503546</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9494949494949495</v>
+        <v>0.9595959595959596</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9595959595959596</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9797979797979798</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C80" t="n">
         <v>0.9797979797979798</v>
@@ -2828,21 +2828,21 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.9432624113475178</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9797979797979798</v>
+        <v>0.9898989898989899</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.9432624113475178</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C82" t="n">
         <v>0.9898989898989899</v>
@@ -2850,13 +2850,13 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7960455620030088</v>
+      </c>
+      <c r="C83" t="n">
         <v>1</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.8035675908016333</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.9898989898989899</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8035675908016333</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -2905,21 +2905,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2927,21 +2927,21 @@
         <v>0.0101010101010101</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05673758865248227</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.0202020202020202</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05673758865248227</v>
+        <v>0.03546099290780142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2949,43 +2949,43 @@
         <v>0.0202020202020202</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.03546099290780142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1631205673758865</v>
+        <v>0.1347517730496454</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2993,21 +2993,21 @@
         <v>0.0505050505050505</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.198581560283688</v>
+        <v>0.1347517730496454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.198581560283688</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3015,21 +3015,21 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2269503546099291</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.0707070707070707</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2269503546099291</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3037,21 +3037,21 @@
         <v>0.0707070707070707</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3687943262411347</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.08080808080808081</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3687943262411347</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3059,21 +3059,21 @@
         <v>0.08080808080808081</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4609929078014184</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4609929078014184</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3081,21 +3081,21 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4822695035460993</v>
+        <v>0.2127659574468085</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.101010101010101</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4822695035460993</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3103,21 +3103,21 @@
         <v>0.101010101010101</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5035460992907801</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5035460992907801</v>
+        <v>0.375886524822695</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3125,21 +3125,21 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C22" t="n">
-        <v>0.524822695035461</v>
+        <v>0.375886524822695</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C23" t="n">
-        <v>0.524822695035461</v>
+        <v>0.3900709219858156</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3147,32 +3147,32 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5460992907801419</v>
+        <v>0.3900709219858156</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5460992907801419</v>
+        <v>0.4042553191489361</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C26" t="n">
-        <v>0.574468085106383</v>
+        <v>0.4042553191489361</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3180,21 +3180,21 @@
         <v>0.1414141414141414</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.574468085106383</v>
+        <v>0.4184397163120567</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1414141414141414</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.4184397163120567</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3202,32 +3202,32 @@
         <v>0.1515151515151515</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5957446808510638</v>
+        <v>0.4964539007092199</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.4964539007092199</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.5815602836879432</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3235,21 +3235,21 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6099290780141844</v>
+        <v>0.5815602836879432</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1919191919191919</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6099290780141844</v>
+        <v>0.5886524822695035</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3257,21 +3257,21 @@
         <v>0.1919191919191919</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5886524822695035</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.202020202020202</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6099290780141844</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3279,32 +3279,32 @@
         <v>0.202020202020202</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7588652482269503</v>
+        <v>0.6099290780141844</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7588652482269503</v>
+        <v>0.6524822695035462</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.6524822695035462</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3312,403 +3312,403 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.6737588652482269</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.6737588652482269</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2525252525252525</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.6950354609929078</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2525252525252525</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8156028368794326</v>
+        <v>0.6950354609929078</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2929292929292929</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8156028368794326</v>
+        <v>0.7446808510638298</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2929292929292929</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.7446808510638298</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.75177304964539</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.75177304964539</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.7801418439716312</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8439716312056738</v>
+        <v>0.7801418439716312</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3838383838383838</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8439716312056738</v>
+        <v>0.7872340425531915</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3838383838383838</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C50" t="n">
-        <v>0.851063829787234</v>
+        <v>0.7872340425531915</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8156028368794326</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.8156028368794326</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.8226950354609929</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8794326241134752</v>
+        <v>0.8226950354609929</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8794326241134752</v>
+        <v>0.8368794326241135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.8368794326241135</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.851063829787234</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.851063829787234</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8723404255319149</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C60" t="n">
-        <v>0.900709219858156</v>
+        <v>0.8723404255319149</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C61" t="n">
-        <v>0.900709219858156</v>
+        <v>0.8794326241134752</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.8794326241134752</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.900709219858156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.900709219858156</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9219858156028369</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.6565656565656566</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9219858156028369</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9290780141843972</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9432624113475178</v>
+        <v>0.9290780141843972</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.797979797979798</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9432624113475178</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.797979797979798</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9503546099290781</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9503546099290781</v>
+        <v>0.9432624113475178</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9432624113475178</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9503546099290781</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.8282828282828283</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9645390070921985</v>
+        <v>0.9503546099290781</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C75" t="n">
         <v>0.9645390070921985</v>
@@ -3716,21 +3716,21 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9716312056737588</v>
+        <v>0.9645390070921985</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.8686868686868687</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C77" t="n">
         <v>0.9716312056737588</v>
@@ -3738,21 +3738,21 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.8686868686868687</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9716312056737588</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C79" t="n">
         <v>0.9787234042553191</v>
@@ -3760,21 +3760,21 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9858156028368794</v>
+        <v>0.9787234042553191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C81" t="n">
         <v>0.9858156028368794</v>
@@ -3782,24 +3782,24 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9858156028368794</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
+        <v>0.9292929292929293</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.7960455620030088</v>
+      </c>
+      <c r="C83" t="n">
         <v>1</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.8035675908016334</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.9929078014184397</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8035675908016334</v>
+        <v>0.7960455620030088</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
